--- a/Team-Data/2013-14/1-23-2013-14.xlsx
+++ b/Team-Data/2013-14/1-23-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -771,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -974,7 +1041,7 @@
         <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU3" t="n">
         <v>28</v>
@@ -983,7 +1050,7 @@
         <v>22</v>
       </c>
       <c r="AW3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX3" t="n">
         <v>16</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1390,7 @@
         <v>20</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
         <v>8</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1572,7 @@
         <v>26</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>12</v>
@@ -1547,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
         <v>24</v>
@@ -1708,10 +1775,10 @@
         <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>0.488</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
@@ -1958,10 +2025,10 @@
         <v>38.2</v>
       </c>
       <c r="J9" t="n">
-        <v>84.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L9" t="n">
         <v>8.199999999999999</v>
@@ -1970,34 +2037,34 @@
         <v>22.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O9" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.732</v>
+        <v>0.73</v>
       </c>
       <c r="R9" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="S9" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="T9" t="n">
-        <v>45.7</v>
+        <v>45.9</v>
       </c>
       <c r="U9" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V9" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
         <v>5.9</v>
@@ -2006,34 +2073,34 @@
         <v>5.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="AA9" t="n">
         <v>21.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>7</v>
@@ -2054,10 +2121,10 @@
         <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
@@ -2072,19 +2139,19 @@
         <v>13</v>
       </c>
       <c r="AV9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AW9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2236,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
@@ -2421,7 +2488,7 @@
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR11" t="n">
         <v>16</v>
@@ -2451,7 +2518,7 @@
         <v>25</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -2630,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -2943,7 +3010,7 @@
         <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2967,13 +3034,13 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT14" t="n">
         <v>15</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>0.372</v>
+        <v>0.381</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,10 +3117,10 @@
         <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L15" t="n">
         <v>9.199999999999999</v>
@@ -3062,37 +3129,37 @@
         <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O15" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P15" t="n">
         <v>23.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.756</v>
+        <v>0.759</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S15" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="T15" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U15" t="n">
         <v>22.5</v>
       </c>
       <c r="V15" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W15" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y15" t="n">
         <v>4.7</v>
@@ -3101,7 +3168,7 @@
         <v>20.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB15" t="n">
         <v>100.6</v>
@@ -3110,19 +3177,19 @@
         <v>-5.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
         <v>22</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>19</v>
@@ -3143,25 +3210,25 @@
         <v>9</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
         <v>25</v>
@@ -3173,10 +3240,10 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
         <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.721</v>
+        <v>0.714</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J17" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.507</v>
+        <v>0.506</v>
       </c>
       <c r="L17" t="n">
         <v>8.1</v>
@@ -3429,22 +3496,22 @@
         <v>0.373</v>
       </c>
       <c r="O17" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P17" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.753</v>
+        <v>0.759</v>
       </c>
       <c r="R17" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T17" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="U17" t="n">
         <v>23.5</v>
@@ -3453,28 +3520,28 @@
         <v>15.1</v>
       </c>
       <c r="W17" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>4.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3489,7 +3556,7 @@
         <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3507,19 +3574,19 @@
         <v>7</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>6</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
         <v>3</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3762,7 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
         <v>14</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -3844,10 +3911,10 @@
         <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>15</v>
@@ -4068,13 +4135,13 @@
         <v>27</v>
       </c>
       <c r="AT20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
         <v>10</v>
@@ -4089,7 +4156,7 @@
         <v>24</v>
       </c>
       <c r="BA20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>15</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-4.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG21" t="n">
         <v>24</v>
@@ -4241,13 +4308,13 @@
         <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT21" t="n">
         <v>27</v>
@@ -4268,7 +4335,7 @@
         <v>5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>16</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4672,7 @@
         <v>22</v>
       </c>
       <c r="AQ23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>27</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -4984,7 +5051,7 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" t="n">
         <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>0.744</v>
+        <v>0.738</v>
       </c>
       <c r="H26" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="J26" t="n">
         <v>88.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L26" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="M26" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.392</v>
+        <v>0.395</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="P26" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.824</v>
+        <v>0.822</v>
       </c>
       <c r="R26" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="T26" t="n">
-        <v>46.5</v>
+        <v>46.6</v>
       </c>
       <c r="U26" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V26" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W26" t="n">
         <v>5.7</v>
@@ -5103,7 +5170,7 @@
         <v>18.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="AB26" t="n">
         <v>109.3</v>
@@ -5112,10 +5179,10 @@
         <v>5.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF26" t="n">
         <v>4</v>
@@ -5124,7 +5191,7 @@
         <v>4</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5139,13 +5206,13 @@
         <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN26" t="n">
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
@@ -5160,13 +5227,13 @@
         <v>6</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>3</v>
       </c>
       <c r="AV26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5181,7 +5248,7 @@
         <v>4</v>
       </c>
       <c r="BA26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5397,7 @@
         <v>5</v>
       </c>
       <c r="AP27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ27" t="n">
         <v>10</v>
@@ -5348,7 +5415,7 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -5715,7 +5782,7 @@
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
         <v>21</v>
@@ -5724,7 +5791,7 @@
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -5879,7 +5946,7 @@
         <v>25</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>18</v>
@@ -5894,7 +5961,7 @@
         <v>23</v>
       </c>
       <c r="AV30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
@@ -6028,10 +6095,10 @@
         <v>14</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH31" t="n">
         <v>3</v>
@@ -6061,7 +6128,7 @@
         <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>19</v>
@@ -6070,7 +6137,7 @@
         <v>16</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-23-2013-14</t>
+          <t>2014-01-23</t>
         </is>
       </c>
     </row>
